--- a/Tablas pag.xlsx
+++ b/Tablas pag.xlsx
@@ -5,26 +5,27 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Sheila\Facultad\Análisis Numérico\AN Virtual 2023\Semana (4)\Comandos utiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Sheila\Facultad\Análisis Numérico\AN Virtual 2023\Semana (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3543A-91F2-4C35-92F9-196A9DEEF4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60916761-8C2B-4215-8136-B15601C6B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="16080" windowHeight="15600" xr2:uid="{F5A131CF-64EB-43FD-A666-C32D32EDA76F}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{F5A131CF-64EB-43FD-A666-C32D32EDA76F}"/>
   </bookViews>
   <sheets>
-    <sheet name="detalle" sheetId="19" r:id="rId1"/>
-    <sheet name="Cu" sheetId="6" r:id="rId2"/>
-    <sheet name="Ca" sheetId="8" r:id="rId3"/>
-    <sheet name="E" sheetId="9" r:id="rId4"/>
-    <sheet name="Od" sheetId="10" r:id="rId5"/>
-    <sheet name="Ors" sheetId="11" r:id="rId6"/>
-    <sheet name="P" sheetId="12" r:id="rId7"/>
-    <sheet name="Sh" sheetId="13" r:id="rId8"/>
-    <sheet name="Su" sheetId="14" r:id="rId9"/>
+    <sheet name="detalle (2)" sheetId="20" r:id="rId1"/>
+    <sheet name="detalle" sheetId="19" r:id="rId2"/>
+    <sheet name="Cu" sheetId="6" r:id="rId3"/>
+    <sheet name="Ca" sheetId="8" r:id="rId4"/>
+    <sheet name="E" sheetId="9" r:id="rId5"/>
+    <sheet name="Od" sheetId="10" r:id="rId6"/>
+    <sheet name="Ors" sheetId="11" r:id="rId7"/>
+    <sheet name="P" sheetId="12" r:id="rId8"/>
+    <sheet name="Sh" sheetId="13" r:id="rId9"/>
+    <sheet name="Su" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Su!$A$1:$I$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Su!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="846">
   <si>
     <t>SupplierID</t>
   </si>
@@ -2626,12 +2627,18 @@
   <si>
     <t>Suppliers su</t>
   </si>
+  <si>
+    <t>detalle de las ordenes</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2775,6 +2782,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2832,7 +2847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2935,11 +2950,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3096,18 +3163,94 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="30">
     <dxf>
       <font>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD269F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3117,11 +3260,6 @@
           <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3169,9 +3307,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3179,6 +3320,13 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3212,6 +3360,63 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD269F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3530,14 +3735,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C77D457-7AFE-4CB9-8E6A-71AE368216B9}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="9" width="17.5703125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11" style="35" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="35" customWidth="1"/>
+    <col min="12" max="13" width="18.140625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="35" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="37"/>
+      <c r="E10" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="76" t="s">
+        <v>844</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>810</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65" t="s">
+        <v>773</v>
+      </c>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>845</v>
+      </c>
+      <c r="B14" s="45">
+        <v>91</v>
+      </c>
+      <c r="C14" s="45">
+        <v>8</v>
+      </c>
+      <c r="D14" s="45">
+        <v>10</v>
+      </c>
+      <c r="E14" s="45">
+        <v>518</v>
+      </c>
+      <c r="F14" s="45">
+        <v>196</v>
+      </c>
+      <c r="G14" s="45">
+        <v>77</v>
+      </c>
+      <c r="H14" s="45">
+        <v>3</v>
+      </c>
+      <c r="I14" s="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="67" t="s">
+        <v>836</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>837</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>838</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>839</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>840</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>841</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>842</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="68" t="s">
+        <v>786</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>794</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>798</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>805</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>811</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>817</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>824</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="68" t="s">
+        <v>787</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>795</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>806</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>812</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>818</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>825</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="68" t="s">
+        <v>788</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>796</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>807</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>813</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>819</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>826</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="68" t="s">
+        <v>789</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="68" t="s">
+        <v>801</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>808</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>814</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>820</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="69" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="68" t="s">
+        <v>790</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="68" t="s">
+        <v>802</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>821</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="69" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="68" t="s">
+        <v>791</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="68" t="s">
+        <v>803</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="68" t="s">
+        <v>822</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="69" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="68" t="s">
+        <v>792</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="69" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="69" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="B10:K10 A1:K9 A54:K1048576 A11:K23">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="CustomerID">
+      <formula>NOT(ISERROR(SEARCH("CustomerID",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K10 J13:K23 A1:K9 A13:A23 A54:K1048576 A11:K12">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="EmployeeID">
+      <formula>NOT(ISERROR(SEARCH("EmployeeID",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="ShipperID">
+      <formula>NOT(ISERROR(SEARCH("ShipperID",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="SupplierID">
+      <formula>NOT(ISERROR(SEARCH("SupplierID",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="ProductID">
+      <formula>NOT(ISERROR(SEARCH("ProductID",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="OrderID">
+      <formula>NOT(ISERROR(SEARCH("OrderID",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="CategoryID">
+      <formula>NOT(ISERROR(SEARCH("CategoryID",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:K10 A54:K1048576 A1:K9 A11:K23">
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:I23">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="EmployeeID">
+      <formula>NOT(ISERROR(SEARCH("EmployeeID",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="ShipperID">
+      <formula>NOT(ISERROR(SEARCH("ShipperID",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="SupplierID">
+      <formula>NOT(ISERROR(SEARCH("SupplierID",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="ProductID">
+      <formula>NOT(ISERROR(SEARCH("ProductID",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="OrderID">
+      <formula>NOT(ISERROR(SEARCH("OrderID",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="CategoryID">
+      <formula>NOT(ISERROR(SEARCH("CategoryID",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BDB197-573C-43BB-B2AD-DFEC70ABB392}">
+  <sheetPr codeName="Hoja17" filterMode="1">
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="14.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="14">
+        <v>70117</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12">
+        <v>48104</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="14">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12">
+        <v>33007</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14">
+        <v>545</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3058</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5442</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10785</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="14">
+        <v>60439</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="12">
+        <v>27478</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="14">
+        <v>48100</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1320</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="14">
+        <v>97101</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="14">
+        <v>75004</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2134</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="14">
+        <v>512</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2800</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="12">
+        <v>43844108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="12">
+        <v>53120</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2042</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="14">
+        <v>84100</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="12">
+        <v>71300</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="14">
+        <v>74000</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I30" xr:uid="{C2BDB197-573C-43BB-B2AD-DFEC70ABB392}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="USA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32336878-083E-4CFB-8362-FD16AF298E5B}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,59 +5519,65 @@
     <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A64:M1048576 A1:M9 A10:B10 D10:M10 A11:M11 A31:M33 A30:F30 H30:M30 A26:M29 A23:D25 L23:M25 A20:M22 B12:M19">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="EmployeeID">
-      <formula>NOT(ISERROR(SEARCH("EmployeeID",A1)))</formula>
+  <conditionalFormatting sqref="A12:A19">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="CustomerID">
+      <formula>NOT(ISERROR(SEARCH("CustomerID",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ShipperID">
-      <formula>NOT(ISERROR(SEARCH("ShipperID",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="SupplierID">
-      <formula>NOT(ISERROR(SEARCH("SupplierID",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="ProductID">
-      <formula>NOT(ISERROR(SEARCH("ProductID",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="OrderID">
-      <formula>NOT(ISERROR(SEARCH("OrderID",A1)))</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="CategoryID">
-      <formula>NOT(ISERROR(SEARCH("CategoryID",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="CustomerID">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M9 A10:B10 D10:M10 A23:D25 L23:M25 A26:M29 A30:F30 H30:M30 A31:M33 A64:M1048576 A11:M11 B12:M19 A20:M22">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="CustomerID">
       <formula>NOT(ISERROR(SEARCH("CustomerID",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A19">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="EmployeeID">
-      <formula>NOT(ISERROR(SEARCH("EmployeeID",A12)))</formula>
+  <conditionalFormatting sqref="A1:M9 A10:B10 D10:M10 A23:D25 L23:M25 A26:M29 A30:F30 H30:M30 A31:M33 A64:M1048576">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="EmployeeID">
+      <formula>NOT(ISERROR(SEARCH("EmployeeID",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="ShipperID">
-      <formula>NOT(ISERROR(SEARCH("ShipperID",A12)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ShipperID">
+      <formula>NOT(ISERROR(SEARCH("ShipperID",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="SupplierID">
-      <formula>NOT(ISERROR(SEARCH("SupplierID",A12)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="SupplierID">
+      <formula>NOT(ISERROR(SEARCH("SupplierID",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="ProductID">
-      <formula>NOT(ISERROR(SEARCH("ProductID",A12)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="ProductID">
+      <formula>NOT(ISERROR(SEARCH("ProductID",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="OrderID">
-      <formula>NOT(ISERROR(SEARCH("OrderID",A12)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="OrderID">
+      <formula>NOT(ISERROR(SEARCH("OrderID",A1)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="CategoryID">
+      <formula>NOT(ISERROR(SEARCH("CategoryID",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:M22">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="EmployeeID">
+      <formula>NOT(ISERROR(SEARCH("EmployeeID",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="ShipperID">
+      <formula>NOT(ISERROR(SEARCH("ShipperID",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="SupplierID">
+      <formula>NOT(ISERROR(SEARCH("SupplierID",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="ProductID">
+      <formula>NOT(ISERROR(SEARCH("ProductID",A11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="OrderID">
+      <formula>NOT(ISERROR(SEARCH("OrderID",A11)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="CategoryID">
-      <formula>NOT(ISERROR(SEARCH("CategoryID",A12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("CategoryID",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="CustomerID">
-      <formula>NOT(ISERROR(SEARCH("CustomerID",A12)))</formula>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:M1048576 A1:M9 A10:B10 D10:M10 A11:M11 A31:M33 A30:F30 H30:M30 A26:M29 A23:D25 L23:M25 A20:M22 B12:M19">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE35292-BD97-4346-8419-F6A30FC5201A}">
   <sheetPr codeName="Hoja10">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6170,7 +7719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C5701F-8D9A-4FF1-8C18-A6A7FF47AAA7}">
   <sheetPr codeName="Hoja11">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6291,7 +7840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529B24E2-EE7F-40A2-807B-398B432196EC}">
   <sheetPr codeName="Hoja12">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6535,7 +8084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7217D27-B5A7-4E45-8723-0630710B6F62}">
   <sheetPr codeName="Hoja13">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -13821,7 +15370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE43AF27-BEF9-4227-A3B7-1EDFF559F992}">
   <sheetPr codeName="Hoja14">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -17186,7 +18735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F3ED6E-059C-49FD-B2F7-E74904256D0E}">
   <sheetPr codeName="Hoja15">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -18769,7 +20318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413F71AC-5AF9-466A-8215-DCBA7B6D6827}">
   <sheetPr codeName="Hoja16">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -18833,820 +20382,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BDB197-573C-43BB-B2AD-DFEC70ABB392}">
-  <sheetPr codeName="Hoja17" filterMode="1">
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="14.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>773</v>
-      </c>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="14">
-        <v>70117</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12">
-        <v>48104</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="14">
-        <v>100</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12">
-        <v>33007</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="14">
-        <v>545</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3058</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="14">
-        <v>5442</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="12">
-        <v>10785</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="14">
-        <v>60439</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="12">
-        <v>27478</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="14">
-        <v>48100</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1320</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="14">
-        <v>97101</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="14">
-        <v>75004</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2134</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="14">
-        <v>512</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="12">
-        <v>2800</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="12">
-        <v>43844108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="12">
-        <v>53120</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="14">
-        <v>2042</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="14">
-        <v>84100</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="12">
-        <v>71300</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="14">
-        <v>74000</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I30" xr:uid="{C2BDB197-573C-43BB-B2AD-DFEC70ABB392}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="USA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>